--- a/TestCases/System Information Tests.xlsx
+++ b/TestCases/System Information Tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>1. An error message should be displayed alerting the user that they must fill the email field.</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -231,14 +234,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E1048576"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="6"/>
-    <tableColumn id="2" name="Description" dataDxfId="5"/>
-    <tableColumn id="3" name="Execution Steps" dataDxfId="4"/>
-    <tableColumn id="4" name="Expected Results" dataDxfId="3"/>
-    <tableColumn id="5" name="Execution" dataDxfId="2"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" name="Execution Steps" dataDxfId="2"/>
+    <tableColumn id="4" name="Expected Results" dataDxfId="1"/>
+    <tableColumn id="5" name="Execution" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,7 +547,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +588,9 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -599,6 +605,9 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -613,8 +622,11 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -626,6 +638,9 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -641,6 +656,9 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -655,6 +673,9 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -669,6 +690,9 @@
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -682,6 +706,9 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
